--- a/Project Journal.xlsx
+++ b/Project Journal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t xml:space="preserve">Name: </t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Please update your tab on this journal to keep track of the time spent working on the project</t>
+  </si>
+  <si>
+    <t>Added new header files. Implemented part of Database.h</t>
   </si>
 </sst>
 </file>
@@ -302,12 +305,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,9 +316,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,6 +339,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,45 +677,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="4" t="str">
         <f>Jesse!B1</f>
         <v>Jesse Hankins</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <f>(Jesse!C2)/60</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="4" t="str">
         <f>Deanna!B1</f>
         <v>Deanna Tatum</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <f>(Deanna!C2)/60</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="17" t="str">
+      <c r="A4" s="14" t="str">
         <f>Kyle!B1</f>
         <v>Kyle Meystedt</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <f>(Kyle!C2)/60</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -723,58 +726,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220D8536-BF03-4DF5-B3B5-AB5FD1A42F84}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G14" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.59765625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="12">
+      <c r="B2" s="18"/>
+      <c r="C2" s="9">
         <f>SUM(B4:B200)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>43028</v>
+      </c>
+      <c r="B4" s="3">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
-        <v>43028</v>
-      </c>
-      <c r="B4" s="5">
-        <v>180</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>43038</v>
+      </c>
+      <c r="B5" s="3">
+        <v>60</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -797,49 +811,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.59765625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="12">
+      <c r="B2" s="18"/>
+      <c r="C2" s="9">
         <f>SUM(B4:B200)</f>
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>43028</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>180</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -863,49 +877,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.59765625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="12">
+      <c r="B2" s="18"/>
+      <c r="C2" s="9">
         <f>SUM(B4:B200)</f>
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>43028</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>180</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Project Journal.xlsx
+++ b/Project Journal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t xml:space="preserve">Name: </t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Added new header files. Implemented part of Database.h</t>
+  </si>
+  <si>
+    <t>10/3102017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed Room explicit constructor. Added input file for testing. </t>
   </si>
 </sst>
 </file>
@@ -691,7 +697,7 @@
       </c>
       <c r="B2" s="5">
         <f>(Jesse!C2)/60</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -726,10 +732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220D8536-BF03-4DF5-B3B5-AB5FD1A42F84}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G13:G14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -755,7 +761,7 @@
       <c r="B2" s="18"/>
       <c r="C2" s="9">
         <f>SUM(B4:B200)</f>
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -789,6 +795,17 @@
       </c>
       <c r="C5" s="11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>120</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Project Journal.xlsx
+++ b/Project Journal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -65,10 +65,19 @@
     <t>Added new header files. Implemented part of Database.h</t>
   </si>
   <si>
-    <t>10/3102017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Completed Room explicit constructor. Added input file for testing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added data member 'next' and function 'setNext' to Object superclass. 
+Edited Object assignment in Rooms.h to account for next data members. 
+Created a test building consisting only of rooms, stairs, and doors that has two floors and a basement.
+Added BuildingInfo.txt to explain input file formatting.
+Corrected location of stairs in roomID f2r410. 
+Added setSymbol function in Objects.h. 
+Completed stairs symbol assignment in Rooms.h. 
+Added basic menu and probability functions in main. 
+Changed definitions from in-line to prototype in header and definition in separate cpp for Objects and Rooms.
+Added notation sections to headers of Objects.h and Rooms.h. </t>
   </si>
 </sst>
 </file>
@@ -697,7 +706,7 @@
       </c>
       <c r="B2" s="5">
         <f>(Jesse!C2)/60</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -732,10 +741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220D8536-BF03-4DF5-B3B5-AB5FD1A42F84}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -761,7 +770,7 @@
       <c r="B2" s="18"/>
       <c r="C2" s="9">
         <f>SUM(B4:B200)</f>
-        <v>360</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -798,13 +807,24 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
+      <c r="A6" s="6">
+        <v>43039</v>
       </c>
       <c r="B6" s="3">
         <v>120</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="270.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>43059</v>
+      </c>
+      <c r="B7" s="3">
+        <v>300</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Project Journal.xlsx
+++ b/Project Journal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10988" xr2:uid="{551A70F0-0B56-434D-A545-C690E3630407}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10988" activeTab="1" xr2:uid="{551A70F0-0B56-434D-A545-C690E3630407}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t xml:space="preserve">Name: </t>
   </si>
@@ -78,6 +78,14 @@
 Added basic menu and probability functions in main. 
 Changed definitions from in-line to prototype in header and definition in separate cpp for Objects and Rooms.
 Added notation sections to headers of Objects.h and Rooms.h. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added data member 'shift' and functions 'setShift', 'getShift', and 'getNext' to Object superclass. 
+Edited Object assignment in Rooms.h to account for shift data members.
+Added shift values to room files for Doors and Windows. 
+Added description for 'shift' in BuildingInfo.txt.
+Removed overloaded output operator for class Rooms. 
+Added function 'displayRoom' to class Rooms. </t>
   </si>
 </sst>
 </file>
@@ -680,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFF5D7-D7F8-409B-A3B4-F198DB463BCD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -706,7 +714,7 @@
       </c>
       <c r="B2" s="5">
         <f>(Jesse!C2)/60</f>
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -741,9 +749,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220D8536-BF03-4DF5-B3B5-AB5FD1A42F84}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -770,7 +778,7 @@
       <c r="B2" s="18"/>
       <c r="C2" s="9">
         <f>SUM(B4:B200)</f>
-        <v>660</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -826,6 +834,17 @@
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>43068</v>
+      </c>
+      <c r="B8" s="3">
+        <v>90</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Project Journal.xlsx
+++ b/Project Journal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10988" activeTab="1" xr2:uid="{551A70F0-0B56-434D-A545-C690E3630407}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10988" xr2:uid="{551A70F0-0B56-434D-A545-C690E3630407}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t xml:space="preserve">Name: </t>
   </si>
@@ -86,6 +86,10 @@
 Added description for 'shift' in BuildingInfo.txt.
 Removed overloaded output operator for class Rooms. 
 Added function 'displayRoom' to class Rooms. </t>
+  </si>
+  <si>
+    <t>Added function getObjects() to Rooms.h to return the vector of objects. 
+Created Building.h, and Building.cpp as a Tree-like structure.</t>
   </si>
 </sst>
 </file>
@@ -688,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFF5D7-D7F8-409B-A3B4-F198DB463BCD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -714,7 +718,7 @@
       </c>
       <c r="B2" s="5">
         <f>(Jesse!C2)/60</f>
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -749,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220D8536-BF03-4DF5-B3B5-AB5FD1A42F84}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -778,7 +782,7 @@
       <c r="B2" s="18"/>
       <c r="C2" s="9">
         <f>SUM(B4:B200)</f>
-        <v>750</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -845,6 +849,17 @@
       </c>
       <c r="C8" s="11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>43071</v>
+      </c>
+      <c r="B9" s="3">
+        <v>360</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Project Journal.xlsx
+++ b/Project Journal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t xml:space="preserve">Name: </t>
   </si>
@@ -90,6 +90,11 @@
   <si>
     <t>Added function getObjects() to Rooms.h to return the vector of objects. 
 Created Building.h, and Building.cpp as a Tree-like structure.</t>
+  </si>
+  <si>
+    <t>Added functions getRoot() and findNext() to Building.h to premit traversal. 
+Added data members, inheretance, and Deploy() function to States.h to handle traversal/generation. 
+Added comments for coding suggestions in States.h</t>
   </si>
 </sst>
 </file>
@@ -718,7 +723,7 @@
       </c>
       <c r="B2" s="5">
         <f>(Jesse!C2)/60</f>
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -753,10 +758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220D8536-BF03-4DF5-B3B5-AB5FD1A42F84}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -782,7 +787,7 @@
       <c r="B2" s="18"/>
       <c r="C2" s="9">
         <f>SUM(B4:B200)</f>
-        <v>1110</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -860,6 +865,17 @@
       </c>
       <c r="C9" s="11" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>43074</v>
+      </c>
+      <c r="B10" s="3">
+        <v>180</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
